--- a/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -311,13 +311,21 @@
   </si>
   <si>
     <t>Capacity(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,27 +923,27 @@
     <col min="12" max="12" width="26" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="6" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="12.875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="11" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15" style="6" customWidth="1"/>
-    <col min="23" max="23" width="11" style="6" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="6" customWidth="1"/>
-    <col min="25" max="26" width="17.125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="14.875" style="6" customWidth="1"/>
-    <col min="29" max="30" width="11.5" style="6" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="6" customWidth="1"/>
-    <col min="32" max="32" width="9.375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="6" customWidth="1"/>
-    <col min="34" max="34" width="21.5" style="6" customWidth="1"/>
-    <col min="35" max="35" width="24.875" style="6" customWidth="1"/>
-    <col min="36" max="36" width="28.75" style="6" customWidth="1"/>
+    <col min="16" max="17" width="17.125" style="6" customWidth="1"/>
+    <col min="18" max="19" width="12.875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11" style="6" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15" style="6" customWidth="1"/>
+    <col min="24" max="24" width="11" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
+    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
+    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="6" customWidth="1"/>
+    <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
+    <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
         <v>78</v>
@@ -973,9 +981,10 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1019,71 +1028,74 @@
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1136,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
       </c>
       <c r="T3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="9">
         <v>3</v>
@@ -1154,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="X3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="9">
         <v>1</v>
@@ -1163,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="9">
         <v>3</v>
@@ -1189,11 +1201,14 @@
       <c r="AI3" s="9">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1239,71 +1254,74 @@
       <c r="O4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="AG4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>71</v>
       </c>
       <c r="P5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1341,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
       </c>
       <c r="V5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="5">
         <v>0</v>
@@ -1359,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -1376,8 +1394,11 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>72</v>
       </c>
       <c r="P6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="11">
         <v>0</v>
@@ -1403,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="T6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="11">
         <v>1</v>
       </c>
       <c r="V6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="11">
         <v>0</v>
       </c>
       <c r="X6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="11">
         <v>1</v>
@@ -1424,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="11">
         <v>0</v>
@@ -1438,8 +1459,11 @@
       <c r="AE6" s="11">
         <v>0</v>
       </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>75</v>
       </c>
       <c r="P7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="12">
         <v>0</v>
@@ -1468,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="12">
         <v>1</v>
       </c>
       <c r="V7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="12">
         <v>0</v>
@@ -1503,8 +1527,11 @@
       <c r="AE7" s="12">
         <v>0</v>
       </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>76</v>
       </c>
@@ -1518,7 +1545,7 @@
         <v>72</v>
       </c>
       <c r="P8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="11">
         <v>0</v>
@@ -1530,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="T8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="11">
         <v>1</v>
       </c>
       <c r="V8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="11">
         <v>0</v>
       </c>
       <c r="X8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="11">
         <v>1</v>
@@ -1551,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="11">
         <v>0</v>
@@ -1563,12 +1590,16 @@
         <v>0</v>
       </c>
       <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -62,9 +62,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
-    <t>LuaFile(string)</t>
-  </si>
-  <si>
     <t>类名称</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>排行榜属性</t>
-  </si>
-  <si>
-    <t>脚本文件</t>
   </si>
   <si>
     <t>添加属性回调</t>
@@ -314,18 +308,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
+    <t>Shield(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Create(int)</t>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,8 +937,7 @@
     <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
     <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="6" customWidth="1"/>
+    <col min="32" max="33" width="10.875" style="6" customWidth="1"/>
     <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
     <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
     <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
@@ -946,7 +947,7 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -987,112 +988,112 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AK2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.15">
@@ -1210,144 +1211,144 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="AE4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="AK4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="P5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -1395,24 +1396,27 @@
         <v>0</v>
       </c>
       <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="P6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="11">
         <v>0</v>
@@ -1460,27 +1464,30 @@
         <v>0</v>
       </c>
       <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="P7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="12">
         <v>0</v>
@@ -1528,24 +1535,27 @@
         <v>0</v>
       </c>
       <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="P8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="11">
         <v>0</v>
@@ -1593,6 +1603,9 @@
         <v>0</v>
       </c>
       <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
@@ -251,9 +251,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -321,6 +318,32 @@
   </si>
   <si>
     <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +931,7 @@
   <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +970,7 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1024,13 +1047,13 @@
         <v>9</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>60</v>
@@ -1066,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>21</v>
@@ -1081,7 +1104,7 @@
         <v>24</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>25</v>
@@ -1250,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>37</v>
@@ -1292,13 +1315,13 @@
         <v>47</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>63</v>
+      <c r="AD4" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>49</v>
@@ -1307,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>51</v>
@@ -1324,19 +1347,19 @@
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>55</v>
@@ -1345,7 +1368,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1407,13 +1430,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="11">
         <v>0</v>
@@ -1472,19 +1495,19 @@
     </row>
     <row r="7" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P7" s="12">
         <v>0</v>
@@ -1543,16 +1566,16 @@
     </row>
     <row r="8" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>

--- a/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/C-成就-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>类名称</t>
   </si>
@@ -344,6 +344,14 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,20 +962,20 @@
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
     <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="33" width="10.875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="6" customWidth="1"/>
+    <col min="24" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="34" width="10.875" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
         <v>75</v>
@@ -1006,9 +1014,10 @@
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1076,50 +1085,53 @@
       <c r="W2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1202,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1228,11 +1240,14 @@
       <c r="AJ3" s="9">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1302,50 +1317,53 @@
       <c r="W4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -1404,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="AA5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="5">
         <v>0</v>
@@ -1424,8 +1442,11 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="11">
         <v>1</v>
@@ -1475,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="11">
         <v>0</v>
@@ -1492,8 +1513,11 @@
       <c r="AG6" s="11">
         <v>0</v>
       </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
@@ -1563,8 +1587,11 @@
       <c r="AG7" s="12">
         <v>0</v>
       </c>
+      <c r="AH7" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>73</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="11">
         <v>1</v>
@@ -1614,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="11">
         <v>0</v>
@@ -1629,6 +1656,9 @@
         <v>0</v>
       </c>
       <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
         <v>0</v>
       </c>
     </row>
